--- a/sources/docs/template_test/TripSharing_System_Test_Phase1.xlsx
+++ b/sources/docs/template_test/TripSharing_System_Test_Phase1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhongNV\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone project\capstone_project\sources\docs\template_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7110" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7110" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Guest" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="459">
   <si>
     <t>Pass</t>
   </si>
@@ -489,9 +489,6 @@
   <si>
     <t>1. System redirect to "trang-tru" page.
 2. System reload "trang-tru" page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8/15/2019</t>
   </si>
   <si>
     <t xml:space="preserve">1. Click to button "Đăng nhập".
@@ -1131,17 +1128,6 @@
     <t>Create a companion post with 'Ngày hết hạn đăng kí' greater than 'Ngày bắt đầu'</t>
   </si>
   <si>
-    <t>1. Click to "+" button on header.
-2. Click to "Tìm bạn đồng hành" option.
-3. Full fill information
--Tiêu đề bài viết: 'Rủ rê đi Hà Nội'
--Địa điểm chuyến đi: Hà Nội
--Ngày bắt đầu: 8/17/2019
--Ngày kết thúc: 8/20/2019
--Ngày hết hạn đăng kí: 8/18/2019
-4. Click to 'Tạo bài viết' button.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. System redirect to 'tao-bai-viet\tim-ban-dong-hanh' page.
 2. System display error message "Ngày hết hạn đăng kí phải nhỏ hơn ngày bắt đầu"
 </t>
@@ -2124,6 +2110,17 @@
   <si>
     <t>Pre-condition                                                1. Acess 
 https://trip-sharing.net/admin/login                                        2.Login successfully</t>
+  </si>
+  <si>
+    <t>1. Click to "+" button on header.
+2. Click to "Tìm bạn đồng hành" option.
+3. Full fill information
+-Tiêu đề bài viết: 'Rủ rê đi Hà Nội'
+-Địa điểm chuyến đi: Hà Nội
+-Ngày bắt đầu: 8/17/2019
+-Ngày kết thúc: 8/20/2019
+-Ngày hết hạn đăng kí: 8/11/2019
+4. Click to 'Tạo bài viết' button.</t>
   </si>
 </sst>
 </file>
@@ -2460,7 +2457,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2544,9 +2541,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2562,33 +2556,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2617,9 +2584,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2632,23 +2596,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2678,6 +2633,36 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2964,56 +2949,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="36" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="15.73046875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.59765625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1328125" style="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.9">
+    <row r="1" spans="1:8" ht="26.25">
       <c r="A1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-    </row>
-    <row r="2" spans="1:8" ht="38.65">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+    </row>
+    <row r="2" spans="1:8" ht="39">
       <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="B3" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="13" t="s">
@@ -3028,12 +3013,12 @@
       <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="44"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" thickBot="1">
+      <c r="F4" s="70"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="A5" s="10">
         <v>10</v>
       </c>
@@ -3046,10 +3031,10 @@
       <c r="D5" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="71">
         <v>10</v>
       </c>
-      <c r="F5" s="45"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
@@ -3079,17 +3064,17 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5"/>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41"/>
-    </row>
-    <row r="11" spans="1:8" ht="27.75">
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+    </row>
+    <row r="11" spans="1:8" ht="30">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
@@ -3118,7 +3103,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="29">
-        <v>43692</v>
+        <v>43687</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>0</v>
@@ -3130,19 +3115,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="29">
-        <v>43692</v>
+        <v>43687</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>0</v>
@@ -3154,19 +3139,19 @@
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="D14" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="29">
-        <v>43692</v>
+        <v>43687</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>0</v>
@@ -3178,19 +3163,19 @@
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="29">
-        <v>43692</v>
+        <v>43687</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>0</v>
@@ -3214,7 +3199,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="29">
-        <v>43692</v>
+        <v>43687</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>0</v>
@@ -3238,7 +3223,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="29">
-        <v>43692</v>
+        <v>43687</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>0</v>
@@ -3262,7 +3247,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="29">
-        <v>43692</v>
+        <v>43687</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>0</v>
@@ -3286,7 +3271,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="29">
-        <v>43692</v>
+        <v>43687</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>0</v>
@@ -3310,14 +3295,14 @@
         <v>24</v>
       </c>
       <c r="F20" s="29">
-        <v>43692</v>
+        <v>43687</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="124.9">
+    <row r="21" spans="1:8" ht="150">
       <c r="A21" s="3" t="s">
         <v>50</v>
       </c>
@@ -3334,7 +3319,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="29">
-        <v>43692</v>
+        <v>43687</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>0</v>
@@ -3359,62 +3344,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A137" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.265625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="34.73046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.73046875" style="32" customWidth="1"/>
-    <col min="7" max="7" width="16.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.3984375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1328125" style="1"/>
+    <col min="2" max="2" width="22.28515625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-    </row>
-    <row r="2" spans="1:8" ht="25.9">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+    </row>
+    <row r="2" spans="1:8" ht="26.25">
       <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="B3" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="42" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -3423,16 +3408,16 @@
       <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="44"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" thickBot="1">
+      <c r="F4" s="70"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="A5" s="10">
         <v>74</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="43">
         <v>0</v>
       </c>
       <c r="C5" s="9">
@@ -3441,10 +3426,10 @@
       <c r="D5" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="71">
         <v>74</v>
       </c>
-      <c r="F5" s="45"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
@@ -3474,17 +3459,17 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5"/>
-      <c r="B10" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41"/>
-    </row>
-    <row r="11" spans="1:8" ht="41.65">
+      <c r="B10" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+    </row>
+    <row r="11" spans="1:8" ht="45">
       <c r="A11" s="5"/>
       <c r="B11" s="28"/>
       <c r="C11" s="18" t="s">
@@ -3496,11 +3481,11 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="69.400000000000006">
+    <row r="12" spans="1:8" ht="75">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="39" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -3513,19 +3498,19 @@
         <v>24</v>
       </c>
       <c r="F12" s="29">
-        <v>43692</v>
+        <v>43688</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="69.400000000000006">
+    <row r="13" spans="1:8" ht="75">
       <c r="A13" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>59</v>
@@ -3537,14 +3522,14 @@
         <v>24</v>
       </c>
       <c r="F13" s="29">
-        <v>43692</v>
+        <v>43688</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="69.400000000000006">
+    <row r="14" spans="1:8" ht="75">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -3561,7 +3546,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="29">
-        <v>43692</v>
+        <v>43688</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>0</v>
@@ -3570,8 +3555,8 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="17"/>
-      <c r="B15" s="56" t="s">
-        <v>117</v>
+      <c r="B15" s="44" t="s">
+        <v>116</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -3580,11 +3565,11 @@
       <c r="G15" s="23"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="27.75">
+    <row r="16" spans="1:8" ht="30">
       <c r="A16" s="17"/>
-      <c r="B16" s="49"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="5"/>
@@ -3592,58 +3577,58 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="138.75">
+    <row r="17" spans="1:8" ht="150">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="E17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="29">
-        <v>43692</v>
+        <v>43688</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="111">
+    <row r="18" spans="1:8" ht="120">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="30">
+      <c r="A19" s="17"/>
+      <c r="B19" s="44" t="s">
         <v>122</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="29">
-        <v>43692</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" ht="27.75">
-      <c r="A19" s="17"/>
-      <c r="B19" s="56" t="s">
-        <v>123</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -3652,11 +3637,11 @@
       <c r="G19" s="23"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="41.65">
+    <row r="20" spans="1:8" ht="45">
       <c r="A20" s="17"/>
-      <c r="B20" s="49"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="5"/>
@@ -3664,7 +3649,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="111">
+    <row r="21" spans="1:8" ht="120">
       <c r="A21" s="3" t="s">
         <v>54</v>
       </c>
@@ -3672,47 +3657,47 @@
         <v>42</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="29">
-        <v>43692</v>
+        <v>43688</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="111">
+    <row r="22" spans="1:8" ht="120">
       <c r="A22" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="E22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="29">
-        <v>43692</v>
+        <v>43688</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="111">
+    <row r="23" spans="1:8" ht="120">
       <c r="A23" s="3" t="s">
         <v>52</v>
       </c>
@@ -3720,112 +3705,112 @@
         <v>40</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="29">
-        <v>43692</v>
+        <v>43688</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="111">
+    <row r="24" spans="1:8" ht="120">
       <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="E24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F24" s="29">
-        <v>43692</v>
+        <v>43688</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="111">
+    <row r="25" spans="1:8" ht="120">
       <c r="A25" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="E25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F25" s="29">
-        <v>43692</v>
+        <v>43688</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="111">
+    <row r="26" spans="1:8" ht="120">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="E26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="29">
-        <v>43692</v>
+        <v>43688</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="111">
+    <row r="27" spans="1:8" ht="120">
       <c r="A27" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B27" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="E27" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="29">
-        <v>43692</v>
+        <v>43688</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>0</v>
@@ -3834,8 +3819,8 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="17"/>
-      <c r="B28" s="56" t="s">
-        <v>143</v>
+      <c r="B28" s="44" t="s">
+        <v>142</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -3844,11 +3829,11 @@
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" ht="41.65">
+    <row r="29" spans="1:8" ht="45">
       <c r="A29" s="17"/>
-      <c r="B29" s="49"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="18" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="5"/>
@@ -3856,7 +3841,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="55.5">
+    <row r="30" spans="1:8" ht="60">
       <c r="A30" s="3" t="s">
         <v>48</v>
       </c>
@@ -3864,25 +3849,25 @@
         <v>105</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="E30" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="29">
-        <v>43692</v>
+        <v>43688</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" ht="30">
       <c r="A31" s="17"/>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="44" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="20"/>
@@ -3892,11 +3877,11 @@
       <c r="G31" s="21"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="41.65">
+    <row r="32" spans="1:8" ht="45">
       <c r="A32" s="17"/>
-      <c r="B32" s="49"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="5"/>
@@ -3904,7 +3889,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" ht="152.65">
+    <row r="33" spans="1:8" ht="165">
       <c r="A33" s="3" t="s">
         <v>47</v>
       </c>
@@ -3915,20 +3900,20 @@
         <v>70</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="29">
-        <v>43692</v>
+        <v>43688</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="69.400000000000006">
+    <row r="34" spans="1:8" ht="105">
       <c r="A34" s="3" t="s">
         <v>46</v>
       </c>
@@ -3945,14 +3930,14 @@
         <v>24</v>
       </c>
       <c r="F34" s="29">
-        <v>43692</v>
+        <v>43688</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="55.5">
+    <row r="35" spans="1:8" ht="75">
       <c r="A35" s="3" t="s">
         <v>45</v>
       </c>
@@ -3969,62 +3954,62 @@
         <v>24</v>
       </c>
       <c r="F35" s="29">
-        <v>43692</v>
+        <v>43688</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" ht="55.5">
+    <row r="36" spans="1:8" ht="75">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="E36" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="29">
-        <v>43692</v>
+        <v>43688</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" ht="194.25">
+    <row r="37" spans="1:8" ht="225">
       <c r="A37" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F37" s="29">
-        <v>43692</v>
+        <v>43688</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" ht="166.5">
+    <row r="38" spans="1:8" ht="195">
       <c r="A38" s="3" t="s">
         <v>41</v>
       </c>
@@ -4035,13 +4020,13 @@
         <v>85</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F38" s="29">
-        <v>43692</v>
+        <v>43688</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>0</v>
@@ -4050,21 +4035,21 @@
     </row>
     <row r="39" spans="1:8" ht="14.25" customHeight="1">
       <c r="A39" s="17"/>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="48"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="75"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" ht="41.65">
+    <row r="40" spans="1:8" ht="45">
       <c r="A40" s="17"/>
-      <c r="B40" s="49"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="18" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="5"/>
@@ -4072,11 +4057,11 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" customFormat="1" ht="41.65">
+    <row r="41" spans="1:8" customFormat="1" ht="60">
       <c r="A41" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="45" t="s">
         <v>105</v>
       </c>
       <c r="C41" s="25" t="s">
@@ -4088,31 +4073,31 @@
       <c r="E41" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="31" t="s">
-        <v>108</v>
+      <c r="F41" s="29">
+        <v>43688</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="73"/>
+      <c r="H41" s="57"/>
     </row>
     <row r="42" spans="1:8" ht="14.25" customHeight="1">
       <c r="A42" s="17"/>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="48"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="75"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="41.65">
+    <row r="43" spans="1:8" ht="45">
       <c r="A43" s="17"/>
-      <c r="B43" s="49"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="5"/>
@@ -4120,7 +4105,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" ht="208.15">
+    <row r="44" spans="1:8" ht="240">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
@@ -4131,20 +4116,20 @@
         <v>67</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="29">
-        <v>43692</v>
+        <v>43688</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" ht="97.15">
+    <row r="45" spans="1:8" ht="135">
       <c r="A45" s="3" t="s">
         <v>37</v>
       </c>
@@ -4161,14 +4146,14 @@
         <v>24</v>
       </c>
       <c r="F45" s="29">
-        <v>43692</v>
+        <v>43688</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" ht="83.25">
+    <row r="46" spans="1:8" ht="120">
       <c r="A46" s="3" t="s">
         <v>36</v>
       </c>
@@ -4185,38 +4170,38 @@
         <v>24</v>
       </c>
       <c r="F46" s="29">
-        <v>43692</v>
+        <v>43688</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" ht="55.5">
+    <row r="47" spans="1:8" ht="75">
       <c r="A47" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="E47" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="29">
-        <v>43692</v>
+        <v>43688</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8" ht="194.25">
+    <row r="48" spans="1:8" ht="240">
       <c r="A48" s="3" t="s">
         <v>34</v>
       </c>
@@ -4227,13 +4212,13 @@
         <v>74</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="29">
-        <v>43692</v>
+        <v>43688</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>0</v>
@@ -4242,21 +4227,21 @@
     </row>
     <row r="49" spans="1:8" ht="14.25" customHeight="1">
       <c r="A49" s="17"/>
-      <c r="B49" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
+      <c r="B49" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" ht="41.65">
+    <row r="50" spans="1:8" ht="45">
       <c r="A50" s="17"/>
-      <c r="B50" s="49"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="5"/>
@@ -4264,24 +4249,24 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" customFormat="1" ht="27.75">
+    <row r="51" spans="1:8" customFormat="1" ht="30">
       <c r="A51" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="D51" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="D51" s="26" t="s">
-        <v>163</v>
-      </c>
       <c r="E51" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F51" s="31" t="s">
-        <v>108</v>
+      <c r="F51" s="29">
+        <v>43688</v>
       </c>
       <c r="G51" s="24" t="s">
         <v>0</v>
@@ -4289,21 +4274,21 @@
     </row>
     <row r="52" spans="1:8" ht="14.25" customHeight="1">
       <c r="A52" s="17"/>
-      <c r="B52" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="48"/>
+      <c r="B52" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="75"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" ht="41.65">
+    <row r="53" spans="1:8" ht="45">
       <c r="A53" s="17"/>
-      <c r="B53" s="49"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="5"/>
@@ -4311,1784 +4296,1808 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:8" customFormat="1" ht="180.4">
+    <row r="54" spans="1:8" customFormat="1" ht="195">
       <c r="A54" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="57" t="s">
-        <v>165</v>
+      <c r="B54" s="45" t="s">
+        <v>164</v>
       </c>
       <c r="C54" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="D54" s="26" t="s">
-        <v>204</v>
-      </c>
       <c r="E54" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F54" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="G54" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H54" s="73"/>
-    </row>
-    <row r="55" spans="1:8" customFormat="1" ht="111">
+      <c r="F54" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G54" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="57"/>
+    </row>
+    <row r="55" spans="1:8" customFormat="1" ht="120">
       <c r="A55" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="57" t="s">
+      <c r="B55" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="C55" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>167</v>
-      </c>
       <c r="E55" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F55" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="G55" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H55" s="73"/>
-    </row>
-    <row r="56" spans="1:8" customFormat="1" ht="111">
+      <c r="F55" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G55" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55" s="57"/>
+    </row>
+    <row r="56" spans="1:8" customFormat="1" ht="120">
       <c r="A56" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="C56" s="25" t="s">
-        <v>170</v>
-      </c>
       <c r="D56" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F56" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="G56" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H56" s="73"/>
-    </row>
-    <row r="57" spans="1:8" customFormat="1" ht="97.15">
+      <c r="F56" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G56" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="H56" s="57"/>
+    </row>
+    <row r="57" spans="1:8" customFormat="1" ht="105">
       <c r="A57" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="57" t="s">
+      <c r="B57" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C57" s="25" t="s">
-        <v>172</v>
-      </c>
       <c r="D57" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E57" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F57" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="G57" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H57" s="73"/>
-    </row>
-    <row r="58" spans="1:8" customFormat="1" ht="124.9">
+      <c r="F57" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G57" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57" s="57"/>
+    </row>
+    <row r="58" spans="1:8" customFormat="1" ht="135">
       <c r="A58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="E58" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G58" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58" s="57"/>
+    </row>
+    <row r="59" spans="1:8" customFormat="1" ht="135">
+      <c r="A59" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="C59" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G59" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="H59" s="57"/>
+    </row>
+    <row r="60" spans="1:8" customFormat="1" ht="90">
+      <c r="A60" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="E58" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F58" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="G58" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H58" s="73"/>
-    </row>
-    <row r="59" spans="1:8" customFormat="1" ht="124.9">
-      <c r="A59" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="B59" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D59" s="26" t="s">
+      <c r="B60" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="E59" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="G59" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H59" s="73"/>
-    </row>
-    <row r="60" spans="1:8" customFormat="1" ht="83.25">
-      <c r="A60" s="24" t="s">
+      <c r="C60" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G60" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60" s="57"/>
+    </row>
+    <row r="61" spans="1:8" customFormat="1" ht="90">
+      <c r="A61" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="B60" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="C60" s="25" t="s">
+      <c r="B61" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="D60" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F60" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="G60" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H60" s="73"/>
-    </row>
-    <row r="61" spans="1:8" customFormat="1" ht="83.25">
-      <c r="A61" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="B61" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="C61" s="25" t="s">
+      <c r="D61" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="D61" s="26" t="s">
-        <v>181</v>
-      </c>
       <c r="E61" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F61" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="G61" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H61" s="73"/>
+      <c r="F61" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G61" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="H61" s="57"/>
     </row>
     <row r="62" spans="1:8" ht="14.25" customHeight="1">
       <c r="A62" s="17"/>
-      <c r="B62" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
+      <c r="B62" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="74"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="1:8" ht="41.65">
+    <row r="63" spans="1:8" ht="45">
       <c r="A63" s="17"/>
-      <c r="B63" s="49"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D63" s="18"/>
       <c r="E63" s="5"/>
       <c r="F63" s="28"/>
-      <c r="G63" s="35"/>
+      <c r="G63" s="34"/>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" spans="1:8" ht="235.9">
-      <c r="A64" s="59" t="s">
+    <row r="64" spans="1:8" ht="285">
+      <c r="A64" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="B64" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="B64" s="60" t="s">
+      <c r="E64" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G64" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" s="53" customFormat="1" ht="75">
+      <c r="A65" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="D64" s="62" t="s">
+      <c r="B65" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G65" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="H65" s="52"/>
+    </row>
+    <row r="66" spans="1:8" ht="240">
+      <c r="A66" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="F64" s="63">
-        <v>43693</v>
-      </c>
-      <c r="G64" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="H64" s="2"/>
-    </row>
-    <row r="65" spans="1:8" s="68" customFormat="1" ht="69.400000000000006">
-      <c r="A65" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="B65" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="C65" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="D65" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F65" s="66">
-        <v>43693</v>
-      </c>
-      <c r="G65" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="H65" s="67"/>
-    </row>
-    <row r="66" spans="1:8" ht="194.25">
-      <c r="A66" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="B66" s="26" t="s">
+      <c r="C66" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="D66" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="E66" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="F66" s="38">
-        <v>43693</v>
-      </c>
-      <c r="G66" s="37" t="s">
+      <c r="E66" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G66" s="36" t="s">
         <v>0</v>
       </c>
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:8" ht="14.25" customHeight="1">
       <c r="A67" s="17"/>
-      <c r="B67" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
+      <c r="B67" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
       <c r="H67" s="5"/>
     </row>
     <row r="68" spans="1:8" ht="61.15" customHeight="1">
       <c r="A68" s="17"/>
-      <c r="B68" s="49"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="5"/>
       <c r="F68" s="28"/>
-      <c r="G68" s="35"/>
+      <c r="G68" s="34"/>
       <c r="H68" s="5"/>
     </row>
-    <row r="69" spans="1:8" ht="346.9">
+    <row r="69" spans="1:8" ht="375">
       <c r="A69" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B69" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="D69" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G69" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:8" ht="165">
+      <c r="A70" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F69" s="29">
-        <v>43693</v>
-      </c>
-      <c r="G69" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="H69" s="2"/>
-    </row>
-    <row r="70" spans="1:8" ht="138.75">
-      <c r="A70" s="3" t="s">
+      <c r="B70" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G70" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="1:8" ht="105">
+      <c r="A71" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B71" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F70" s="29">
-        <v>43693</v>
-      </c>
-      <c r="G70" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="1:8" ht="97.15">
-      <c r="A71" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B71" s="16" t="s">
+      <c r="C71" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="E71" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G71" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="1:8" ht="120">
+      <c r="A72" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F71" s="29">
-        <v>43693</v>
-      </c>
-      <c r="G71" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="1:8" ht="111">
-      <c r="A72" s="3" t="s">
+      <c r="B72" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="C72" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="E72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G72" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:8" ht="120">
+      <c r="A73" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G73" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:8" ht="135">
+      <c r="A74" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G74" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8" ht="135">
+      <c r="A75" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F72" s="29">
-        <v>43693</v>
-      </c>
-      <c r="G72" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="H72" s="2"/>
-    </row>
-    <row r="73" spans="1:8" ht="111">
-      <c r="A73" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F73" s="29">
-        <v>43693</v>
-      </c>
-      <c r="G73" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="H73" s="2"/>
-    </row>
-    <row r="74" spans="1:8" ht="124.9">
-      <c r="A74" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="C74" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D75" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G75" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:8" ht="180">
+      <c r="A76" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B76" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F74" s="29">
-        <v>43693</v>
-      </c>
-      <c r="G74" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="H74" s="2"/>
-    </row>
-    <row r="75" spans="1:8" ht="124.9">
-      <c r="A75" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="C75" s="4" t="s">
+      <c r="C76" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F75" s="29">
-        <v>43693</v>
-      </c>
-      <c r="G75" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="H75" s="2"/>
-    </row>
-    <row r="76" spans="1:8" ht="166.5">
-      <c r="A76" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B76" s="16" t="s">
+      <c r="D76" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="E76" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F76" s="29">
-        <v>43693</v>
-      </c>
-      <c r="G76" s="77" t="s">
+        <v>43688</v>
+      </c>
+      <c r="G76" s="61" t="s">
         <v>0</v>
       </c>
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="17"/>
-      <c r="B77" s="69" t="s">
-        <v>235</v>
-      </c>
-      <c r="C77" s="69"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="69"/>
-      <c r="F77" s="69"/>
-      <c r="G77" s="46"/>
+      <c r="B77" s="72" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="73"/>
       <c r="H77" s="5"/>
     </row>
     <row r="78" spans="1:8" ht="73.5" customHeight="1">
       <c r="A78" s="17"/>
-      <c r="B78" s="49"/>
+      <c r="B78" s="37"/>
       <c r="C78" s="18" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D78" s="18"/>
       <c r="E78" s="5"/>
       <c r="F78" s="28"/>
-      <c r="G78" s="35"/>
+      <c r="G78" s="34"/>
       <c r="H78" s="5"/>
     </row>
-    <row r="79" spans="1:8" customFormat="1" ht="152.65">
-      <c r="A79" s="70" t="s">
-        <v>237</v>
-      </c>
-      <c r="B79" s="71" t="s">
+    <row r="79" spans="1:8" customFormat="1" ht="165">
+      <c r="A79" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="B79" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="C79" s="56" t="s">
         <v>234</v>
       </c>
-      <c r="C79" s="72" t="s">
-        <v>236</v>
-      </c>
       <c r="D79" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="E79" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="F79" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="G79" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="H79" s="73"/>
+        <v>307</v>
+      </c>
+      <c r="E79" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G79" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="H79" s="57"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="17"/>
-      <c r="B80" s="69" t="s">
-        <v>235</v>
-      </c>
-      <c r="C80" s="69"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="69"/>
-      <c r="F80" s="69"/>
-      <c r="G80" s="46"/>
+      <c r="B80" s="72" t="s">
+        <v>233</v>
+      </c>
+      <c r="C80" s="72"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="73"/>
       <c r="H80" s="5"/>
     </row>
     <row r="81" spans="1:8" ht="71.650000000000006" customHeight="1">
       <c r="A81" s="17"/>
-      <c r="B81" s="49"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D81" s="18"/>
       <c r="E81" s="5"/>
       <c r="F81" s="28"/>
-      <c r="G81" s="35"/>
+      <c r="G81" s="34"/>
       <c r="H81" s="5"/>
     </row>
-    <row r="82" spans="1:8" ht="152.65">
-      <c r="A82" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="B82" s="51" t="s">
+    <row r="82" spans="1:8" ht="165">
+      <c r="A82" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="C82" s="34" t="s">
-        <v>241</v>
+      <c r="B82" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>239</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="E82" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="E82" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F82" s="29">
-        <v>43693</v>
-      </c>
-      <c r="G82" s="79" t="s">
+        <v>43688</v>
+      </c>
+      <c r="G82" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H82" s="2"/>
     </row>
     <row r="83" spans="1:8" ht="14.25" customHeight="1">
       <c r="A83" s="17"/>
-      <c r="B83" s="69" t="s">
-        <v>243</v>
-      </c>
-      <c r="C83" s="69"/>
-      <c r="D83" s="69"/>
-      <c r="E83" s="69"/>
-      <c r="F83" s="69"/>
-      <c r="G83" s="46"/>
+      <c r="B83" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="C83" s="72"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="73"/>
       <c r="H83" s="5"/>
     </row>
     <row r="84" spans="1:8" ht="75" customHeight="1">
       <c r="A84" s="17"/>
-      <c r="B84" s="49"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D84" s="18"/>
       <c r="E84" s="5"/>
       <c r="F84" s="28"/>
-      <c r="G84" s="35"/>
+      <c r="G84" s="34"/>
       <c r="H84" s="5"/>
     </row>
-    <row r="85" spans="1:8" ht="346.9">
-      <c r="A85" s="51" t="s">
+    <row r="85" spans="1:8" ht="375">
+      <c r="A85" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B85" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="B85" s="51" t="s">
-        <v>244</v>
-      </c>
       <c r="C85" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E85" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="E85" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F85" s="29">
-        <v>43693</v>
-      </c>
-      <c r="G85" s="79" t="s">
+        <v>43688</v>
+      </c>
+      <c r="G85" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="1:8" ht="14.25" customHeight="1">
       <c r="A86" s="17"/>
-      <c r="B86" s="69" t="s">
-        <v>246</v>
-      </c>
-      <c r="C86" s="69"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="69"/>
-      <c r="F86" s="69"/>
-      <c r="G86" s="46"/>
+      <c r="B86" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="C86" s="72"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="73"/>
       <c r="H86" s="5"/>
     </row>
-    <row r="87" spans="1:8" ht="78.849999999999994" customHeight="1">
+    <row r="87" spans="1:8" ht="78.95" customHeight="1">
       <c r="A87" s="17"/>
-      <c r="B87" s="49"/>
+      <c r="B87" s="37"/>
       <c r="C87" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="5"/>
       <c r="F87" s="28"/>
-      <c r="G87" s="35"/>
+      <c r="G87" s="34"/>
       <c r="H87" s="5"/>
     </row>
-    <row r="88" spans="1:8" ht="83.25">
-      <c r="A88" s="51" t="s">
+    <row r="88" spans="1:8" ht="90">
+      <c r="A88" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="B88" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="C88" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="B88" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>249</v>
-      </c>
       <c r="D88" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="E88" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="E88" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F88" s="29">
-        <v>43693</v>
-      </c>
-      <c r="G88" s="79" t="s">
+        <v>43688</v>
+      </c>
+      <c r="G88" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H88" s="2"/>
     </row>
     <row r="89" spans="1:8" ht="14.25" customHeight="1">
       <c r="A89" s="17"/>
-      <c r="B89" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="C89" s="47"/>
-      <c r="D89" s="47"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="47"/>
+      <c r="B89" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="C89" s="74"/>
+      <c r="D89" s="74"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="74"/>
+      <c r="G89" s="74"/>
       <c r="H89" s="5"/>
     </row>
-    <row r="90" spans="1:8" ht="76.25" customHeight="1">
+    <row r="90" spans="1:8" ht="76.349999999999994" customHeight="1">
       <c r="A90" s="17"/>
-      <c r="B90" s="49"/>
+      <c r="B90" s="37"/>
       <c r="C90" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="5"/>
       <c r="F90" s="28"/>
-      <c r="G90" s="35"/>
+      <c r="G90" s="34"/>
       <c r="H90" s="5"/>
     </row>
-    <row r="91" spans="1:8" ht="83.25">
-      <c r="A91" s="51" t="s">
+    <row r="91" spans="1:8" ht="105">
+      <c r="A91" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="B91" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D91" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="B91" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="E91" s="51" t="s">
+      <c r="E91" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F91" s="29">
-        <v>43693</v>
-      </c>
-      <c r="G91" s="79" t="s">
+        <v>43688</v>
+      </c>
+      <c r="G91" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="1:8" ht="14.25" customHeight="1">
       <c r="A92" s="17"/>
-      <c r="B92" s="69" t="s">
-        <v>254</v>
-      </c>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="46"/>
+      <c r="B92" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="C92" s="72"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="73"/>
       <c r="H92" s="5"/>
     </row>
-    <row r="93" spans="1:8" ht="85.25" customHeight="1">
+    <row r="93" spans="1:8" ht="85.35" customHeight="1">
       <c r="A93" s="17"/>
-      <c r="B93" s="49"/>
+      <c r="B93" s="37"/>
       <c r="C93" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D93" s="18"/>
       <c r="E93" s="5"/>
       <c r="F93" s="28"/>
-      <c r="G93" s="35"/>
+      <c r="G93" s="34"/>
       <c r="H93" s="5"/>
     </row>
-    <row r="94" spans="1:8" ht="97.15">
-      <c r="A94" s="51" t="s">
-        <v>256</v>
-      </c>
-      <c r="B94" s="51" t="s">
-        <v>257</v>
+    <row r="94" spans="1:8" ht="105">
+      <c r="A94" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="B94" s="39" t="s">
+        <v>255</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="E94" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="E94" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F94" s="29">
-        <v>43693</v>
-      </c>
-      <c r="G94" s="79" t="s">
+        <v>43688</v>
+      </c>
+      <c r="G94" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H94" s="2"/>
     </row>
     <row r="95" spans="1:8" ht="14.25" customHeight="1">
       <c r="A95" s="17"/>
-      <c r="B95" s="69" t="s">
-        <v>258</v>
-      </c>
-      <c r="C95" s="69"/>
-      <c r="D95" s="69"/>
-      <c r="E95" s="69"/>
-      <c r="F95" s="69"/>
-      <c r="G95" s="46"/>
+      <c r="B95" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="C95" s="72"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="73"/>
       <c r="H95" s="5"/>
     </row>
     <row r="96" spans="1:8" ht="75.400000000000006" customHeight="1">
       <c r="A96" s="17"/>
-      <c r="B96" s="49"/>
-      <c r="C96" s="49" t="s">
-        <v>368</v>
+      <c r="B96" s="37"/>
+      <c r="C96" s="37" t="s">
+        <v>366</v>
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="5"/>
       <c r="F96" s="28"/>
-      <c r="G96" s="35"/>
+      <c r="G96" s="34"/>
       <c r="H96" s="5"/>
     </row>
-    <row r="97" spans="1:8" ht="55.5">
-      <c r="A97" s="51" t="s">
+    <row r="97" spans="1:8" ht="60">
+      <c r="A97" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="B97" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="E97" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F97" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G97" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="H97" s="2"/>
+    </row>
+    <row r="98" spans="1:8" ht="60">
+      <c r="A98" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="B97" s="51" t="s">
+      <c r="B98" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="C98" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="C97" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="E97" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="F97" s="29">
-        <v>43694</v>
-      </c>
-      <c r="G97" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="H97" s="2"/>
-    </row>
-    <row r="98" spans="1:8" ht="55.5">
-      <c r="A98" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="B98" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>261</v>
-      </c>
       <c r="D98" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="E98" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="E98" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F98" s="29">
-        <v>43694</v>
-      </c>
-      <c r="G98" s="79" t="s">
+        <v>43688</v>
+      </c>
+      <c r="G98" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H98" s="2"/>
     </row>
     <row r="99" spans="1:8" ht="14.25" customHeight="1">
       <c r="A99" s="17"/>
-      <c r="B99" s="69" t="s">
-        <v>301</v>
-      </c>
-      <c r="C99" s="69"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="69"/>
-      <c r="G99" s="46"/>
+      <c r="B99" s="72" t="s">
+        <v>299</v>
+      </c>
+      <c r="C99" s="72"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="73"/>
       <c r="H99" s="5"/>
     </row>
     <row r="100" spans="1:8" ht="75.400000000000006" customHeight="1">
       <c r="A100" s="17"/>
-      <c r="B100" s="49"/>
-      <c r="C100" s="49" t="s">
-        <v>369</v>
+      <c r="B100" s="37"/>
+      <c r="C100" s="37" t="s">
+        <v>367</v>
       </c>
       <c r="D100" s="18"/>
       <c r="E100" s="5"/>
       <c r="F100" s="28"/>
-      <c r="G100" s="35"/>
+      <c r="G100" s="34"/>
       <c r="H100" s="5"/>
     </row>
-    <row r="101" spans="1:8" ht="55.5">
-      <c r="A101" s="51" t="s">
+    <row r="101" spans="1:8" ht="60">
+      <c r="A101" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="E101" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G101" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="H101" s="2"/>
+    </row>
+    <row r="102" spans="1:8" ht="75">
+      <c r="A102" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B102" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E102" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G102" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2"/>
+    </row>
+    <row r="103" spans="1:8" ht="75">
+      <c r="A103" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="B103" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="C103" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="C101" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="D101" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="E101" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="F101" s="29">
-        <v>43694</v>
-      </c>
-      <c r="G101" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="H101" s="2"/>
-    </row>
-    <row r="102" spans="1:8" ht="69.400000000000006">
-      <c r="A102" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D102" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="E102" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="F102" s="29">
-        <v>43694</v>
-      </c>
-      <c r="G102" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="H102" s="2"/>
-    </row>
-    <row r="103" spans="1:8" ht="69.400000000000006">
-      <c r="A103" s="51" t="s">
+      <c r="D103" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="B103" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="D103" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="E103" s="51" t="s">
+      <c r="E103" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F103" s="29">
-        <v>43694</v>
-      </c>
-      <c r="G103" s="79" t="s">
+        <v>43688</v>
+      </c>
+      <c r="G103" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H103" s="2"/>
     </row>
-    <row r="104" spans="1:8" ht="41.65">
-      <c r="A104" s="51" t="s">
+    <row r="104" spans="1:8" ht="60">
+      <c r="A104" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="B104" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="C104" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="B104" s="51" t="s">
+      <c r="D104" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="C104" s="16" t="s">
+      <c r="E104" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G104" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="H104" s="2"/>
+    </row>
+    <row r="105" spans="1:8" ht="90">
+      <c r="A105" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="B105" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="D104" s="34" t="s">
+      <c r="C105" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="E104" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="F104" s="29">
-        <v>43694</v>
-      </c>
-      <c r="G104" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="H104" s="2"/>
-    </row>
-    <row r="105" spans="1:8" ht="55.5">
-      <c r="A105" s="51" t="s">
-        <v>299</v>
-      </c>
-      <c r="B105" s="16" t="s">
+      <c r="D105" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="C105" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="D105" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="E105" s="51" t="s">
+      <c r="E105" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F105" s="29">
-        <v>43694</v>
-      </c>
-      <c r="G105" s="79" t="s">
+        <v>43688</v>
+      </c>
+      <c r="G105" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H105" s="2"/>
     </row>
     <row r="106" spans="1:8" ht="14.25" customHeight="1">
       <c r="A106" s="17"/>
-      <c r="B106" s="69" t="s">
-        <v>300</v>
-      </c>
-      <c r="C106" s="69"/>
-      <c r="D106" s="69"/>
-      <c r="E106" s="69"/>
-      <c r="F106" s="69"/>
-      <c r="G106" s="46"/>
+      <c r="B106" s="72" t="s">
+        <v>298</v>
+      </c>
+      <c r="C106" s="72"/>
+      <c r="D106" s="72"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="73"/>
       <c r="H106" s="5"/>
     </row>
     <row r="107" spans="1:8" ht="75.400000000000006" customHeight="1">
       <c r="A107" s="17"/>
-      <c r="B107" s="49"/>
-      <c r="C107" s="49" t="s">
-        <v>370</v>
+      <c r="B107" s="37"/>
+      <c r="C107" s="37" t="s">
+        <v>368</v>
       </c>
       <c r="D107" s="18"/>
       <c r="E107" s="5"/>
       <c r="F107" s="28"/>
-      <c r="G107" s="35"/>
+      <c r="G107" s="34"/>
       <c r="H107" s="5"/>
     </row>
-    <row r="108" spans="1:8" s="53" customFormat="1" ht="55.9" customHeight="1">
+    <row r="108" spans="1:8" s="41" customFormat="1" ht="55.9" customHeight="1">
       <c r="A108" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C108" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="D108" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F108" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G108" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="H108" s="40"/>
+    </row>
+    <row r="109" spans="1:8" ht="75">
+      <c r="A109" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C108" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="D108" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F108" s="50">
-        <v>43695</v>
-      </c>
-      <c r="G108" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="H108" s="52"/>
-    </row>
-    <row r="109" spans="1:8" ht="69.400000000000006">
-      <c r="A109" s="16" t="s">
-        <v>305</v>
-      </c>
       <c r="B109" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D109" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="C109" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="E109" s="51" t="s">
+      <c r="E109" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F109" s="29">
-        <v>43695</v>
-      </c>
-      <c r="G109" s="79" t="s">
+        <v>43688</v>
+      </c>
+      <c r="G109" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H109" s="2"/>
     </row>
     <row r="110" spans="1:8" ht="14.25" customHeight="1">
       <c r="A110" s="17"/>
-      <c r="B110" s="69" t="s">
-        <v>306</v>
-      </c>
-      <c r="C110" s="69"/>
-      <c r="D110" s="69"/>
-      <c r="E110" s="69"/>
-      <c r="F110" s="69"/>
-      <c r="G110" s="46"/>
+      <c r="B110" s="72" t="s">
+        <v>304</v>
+      </c>
+      <c r="C110" s="72"/>
+      <c r="D110" s="72"/>
+      <c r="E110" s="72"/>
+      <c r="F110" s="72"/>
+      <c r="G110" s="73"/>
       <c r="H110" s="5"/>
     </row>
     <row r="111" spans="1:8" ht="84.75" customHeight="1">
       <c r="A111" s="17"/>
-      <c r="B111" s="49"/>
-      <c r="C111" s="49" t="s">
-        <v>371</v>
+      <c r="B111" s="37"/>
+      <c r="C111" s="37" t="s">
+        <v>369</v>
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="5"/>
       <c r="F111" s="28"/>
-      <c r="G111" s="35"/>
+      <c r="G111" s="34"/>
       <c r="H111" s="5"/>
     </row>
-    <row r="112" spans="1:8" ht="69.400000000000006">
+    <row r="112" spans="1:8" ht="75">
       <c r="A112" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="E112" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F112" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G112" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="H112" s="2"/>
+    </row>
+    <row r="113" spans="1:8" ht="75">
+      <c r="A113" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="B112" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="D112" s="16" t="s">
+      <c r="B113" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="E112" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="F112" s="29">
-        <v>43695</v>
-      </c>
-      <c r="G112" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="H112" s="2"/>
-    </row>
-    <row r="113" spans="1:8" ht="69.400000000000006">
-      <c r="A113" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>317</v>
-      </c>
       <c r="C113" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="E113" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="E113" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F113" s="29">
-        <v>43695</v>
-      </c>
-      <c r="G113" s="79" t="s">
+        <v>43688</v>
+      </c>
+      <c r="G113" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H113" s="2"/>
     </row>
     <row r="114" spans="1:8" ht="14.25" customHeight="1">
       <c r="A114" s="17"/>
-      <c r="B114" s="69" t="s">
-        <v>334</v>
-      </c>
-      <c r="C114" s="69"/>
-      <c r="D114" s="69"/>
-      <c r="E114" s="69"/>
-      <c r="F114" s="69"/>
-      <c r="G114" s="46"/>
+      <c r="B114" s="72" t="s">
+        <v>332</v>
+      </c>
+      <c r="C114" s="72"/>
+      <c r="D114" s="72"/>
+      <c r="E114" s="72"/>
+      <c r="F114" s="72"/>
+      <c r="G114" s="73"/>
       <c r="H114" s="5"/>
     </row>
     <row r="115" spans="1:8" ht="60.4" customHeight="1">
       <c r="A115" s="17"/>
-      <c r="B115" s="49"/>
-      <c r="C115" s="49" t="s">
-        <v>369</v>
+      <c r="B115" s="37"/>
+      <c r="C115" s="37" t="s">
+        <v>367</v>
       </c>
       <c r="D115" s="18"/>
       <c r="E115" s="5"/>
       <c r="F115" s="28"/>
-      <c r="G115" s="35"/>
+      <c r="G115" s="34"/>
       <c r="H115" s="5"/>
     </row>
-    <row r="116" spans="1:8" ht="41.65">
+    <row r="116" spans="1:8" ht="45">
       <c r="A116" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C116" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="D116" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="E116" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F116" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G116" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="H116" s="2"/>
+    </row>
+    <row r="117" spans="1:8" ht="90">
+      <c r="A117" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="C116" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="D116" s="16" t="s">
+      <c r="B117" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C117" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="E116" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="F116" s="29">
-        <v>43695</v>
-      </c>
-      <c r="G116" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="H116" s="2"/>
-    </row>
-    <row r="117" spans="1:8" ht="69.400000000000006">
-      <c r="A117" s="16" t="s">
+      <c r="D117" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="B117" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="D117" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="E117" s="51" t="s">
+      <c r="E117" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F117" s="29">
-        <v>43695</v>
-      </c>
-      <c r="G117" s="79" t="s">
+        <v>43688</v>
+      </c>
+      <c r="G117" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H117" s="2"/>
     </row>
     <row r="118" spans="1:8" ht="72.400000000000006" customHeight="1">
       <c r="A118" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B118" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C118" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="C118" s="16" t="s">
-        <v>332</v>
-      </c>
       <c r="D118" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="E118" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="E118" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F118" s="29">
-        <v>43695</v>
-      </c>
-      <c r="G118" s="79" t="s">
+        <v>43688</v>
+      </c>
+      <c r="G118" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H118" s="2"/>
     </row>
     <row r="119" spans="1:8" ht="14.25" customHeight="1">
       <c r="A119" s="17"/>
-      <c r="B119" s="69" t="s">
-        <v>334</v>
-      </c>
-      <c r="C119" s="69"/>
-      <c r="D119" s="69"/>
-      <c r="E119" s="69"/>
-      <c r="F119" s="69"/>
-      <c r="G119" s="46"/>
+      <c r="B119" s="72" t="s">
+        <v>332</v>
+      </c>
+      <c r="C119" s="72"/>
+      <c r="D119" s="72"/>
+      <c r="E119" s="72"/>
+      <c r="F119" s="72"/>
+      <c r="G119" s="73"/>
       <c r="H119" s="5"/>
     </row>
     <row r="120" spans="1:8" ht="77.25" customHeight="1">
       <c r="A120" s="17"/>
-      <c r="B120" s="49"/>
-      <c r="C120" s="49" t="s">
-        <v>372</v>
+      <c r="B120" s="37"/>
+      <c r="C120" s="37" t="s">
+        <v>370</v>
       </c>
       <c r="D120" s="18"/>
       <c r="E120" s="5"/>
       <c r="F120" s="28"/>
-      <c r="G120" s="35"/>
+      <c r="G120" s="34"/>
       <c r="H120" s="5"/>
     </row>
-    <row r="121" spans="1:8" ht="69.400000000000006">
+    <row r="121" spans="1:8" ht="90">
       <c r="A121" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C121" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E121" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F121" s="29">
+        <v>43688</v>
+      </c>
+      <c r="G121" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="H121" s="2"/>
+    </row>
+    <row r="122" spans="1:8" ht="90">
+      <c r="A122" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C122" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="D121" s="16" t="s">
+      <c r="D122" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="E121" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="F121" s="29">
-        <v>43695</v>
-      </c>
-      <c r="G121" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="H121" s="2"/>
-    </row>
-    <row r="122" spans="1:8" ht="69.400000000000006">
-      <c r="A122" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="B122" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="D122" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="E122" s="51" t="s">
+      <c r="E122" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F122" s="29">
-        <v>43695</v>
-      </c>
-      <c r="G122" s="79" t="s">
+        <v>43688</v>
+      </c>
+      <c r="G122" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H122" s="2"/>
     </row>
     <row r="123" spans="1:8" ht="14.25" customHeight="1">
       <c r="A123" s="17"/>
-      <c r="B123" s="69" t="s">
-        <v>342</v>
-      </c>
-      <c r="C123" s="69"/>
-      <c r="D123" s="69"/>
-      <c r="E123" s="69"/>
-      <c r="F123" s="69"/>
-      <c r="G123" s="46"/>
+      <c r="B123" s="72" t="s">
+        <v>340</v>
+      </c>
+      <c r="C123" s="72"/>
+      <c r="D123" s="72"/>
+      <c r="E123" s="72"/>
+      <c r="F123" s="72"/>
+      <c r="G123" s="73"/>
       <c r="H123" s="5"/>
     </row>
     <row r="124" spans="1:8" ht="77.25" customHeight="1">
       <c r="A124" s="17"/>
-      <c r="B124" s="49"/>
-      <c r="C124" s="49" t="s">
-        <v>373</v>
+      <c r="B124" s="37"/>
+      <c r="C124" s="37" t="s">
+        <v>371</v>
       </c>
       <c r="D124" s="18"/>
       <c r="E124" s="5"/>
       <c r="F124" s="28"/>
-      <c r="G124" s="35"/>
+      <c r="G124" s="34"/>
       <c r="H124" s="5"/>
     </row>
-    <row r="125" spans="1:8" ht="69.400000000000006">
+    <row r="125" spans="1:8" ht="90">
       <c r="A125" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="B125" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="B125" s="16" t="s">
+      <c r="C125" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="D125" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="C125" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="D125" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="E125" s="51" t="s">
+      <c r="E125" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F125" s="29">
-        <v>43695</v>
-      </c>
-      <c r="G125" s="79" t="s">
+        <v>43688</v>
+      </c>
+      <c r="G125" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H125" s="2"/>
     </row>
     <row r="126" spans="1:8" ht="14.25" customHeight="1">
       <c r="A126" s="17"/>
-      <c r="B126" s="69" t="s">
-        <v>342</v>
-      </c>
-      <c r="C126" s="69"/>
-      <c r="D126" s="69"/>
-      <c r="E126" s="69"/>
-      <c r="F126" s="69"/>
-      <c r="G126" s="46"/>
+      <c r="B126" s="72" t="s">
+        <v>340</v>
+      </c>
+      <c r="C126" s="72"/>
+      <c r="D126" s="72"/>
+      <c r="E126" s="72"/>
+      <c r="F126" s="72"/>
+      <c r="G126" s="73"/>
       <c r="H126" s="5"/>
     </row>
     <row r="127" spans="1:8" ht="91.15" customHeight="1">
       <c r="A127" s="17"/>
-      <c r="B127" s="49"/>
-      <c r="C127" s="49" t="s">
-        <v>374</v>
+      <c r="B127" s="37"/>
+      <c r="C127" s="37" t="s">
+        <v>372</v>
       </c>
       <c r="D127" s="18"/>
       <c r="E127" s="5"/>
       <c r="F127" s="28"/>
-      <c r="G127" s="35"/>
+      <c r="G127" s="34"/>
       <c r="H127" s="5"/>
     </row>
-    <row r="128" spans="1:8" ht="69.400000000000006">
+    <row r="128" spans="1:8" ht="75">
       <c r="A128" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C128" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="B128" s="16" t="s">
+      <c r="D128" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="C128" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="D128" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="E128" s="51" t="s">
+      <c r="E128" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F128" s="29">
-        <v>43695</v>
-      </c>
-      <c r="G128" s="79" t="s">
+        <v>43688</v>
+      </c>
+      <c r="G128" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H128" s="2"/>
     </row>
     <row r="129" spans="1:8" ht="14.25" customHeight="1">
       <c r="A129" s="17"/>
-      <c r="B129" s="69" t="s">
-        <v>350</v>
-      </c>
-      <c r="C129" s="69"/>
-      <c r="D129" s="69"/>
-      <c r="E129" s="69"/>
-      <c r="F129" s="69"/>
-      <c r="G129" s="46"/>
+      <c r="B129" s="72" t="s">
+        <v>348</v>
+      </c>
+      <c r="C129" s="72"/>
+      <c r="D129" s="72"/>
+      <c r="E129" s="72"/>
+      <c r="F129" s="72"/>
+      <c r="G129" s="73"/>
       <c r="H129" s="5"/>
     </row>
     <row r="130" spans="1:8" ht="91.15" customHeight="1">
       <c r="A130" s="17"/>
-      <c r="B130" s="49"/>
-      <c r="C130" s="49" t="s">
-        <v>360</v>
+      <c r="B130" s="37"/>
+      <c r="C130" s="37" t="s">
+        <v>358</v>
       </c>
       <c r="D130" s="18"/>
       <c r="E130" s="5"/>
       <c r="F130" s="28"/>
-      <c r="G130" s="35"/>
+      <c r="G130" s="34"/>
       <c r="H130" s="5"/>
     </row>
     <row r="131" spans="1:8" ht="98.25" customHeight="1">
       <c r="A131" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B131" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D131" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C131" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="D131" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="E131" s="51" t="s">
+      <c r="E131" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F131" s="29">
-        <v>43695</v>
-      </c>
-      <c r="G131" s="79" t="s">
+        <v>43688</v>
+      </c>
+      <c r="G131" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H131" s="2"/>
     </row>
     <row r="132" spans="1:8" ht="14.25" customHeight="1">
       <c r="A132" s="17"/>
-      <c r="B132" s="69" t="s">
-        <v>355</v>
-      </c>
-      <c r="C132" s="69"/>
-      <c r="D132" s="69"/>
-      <c r="E132" s="69"/>
-      <c r="F132" s="69"/>
-      <c r="G132" s="46"/>
+      <c r="B132" s="72" t="s">
+        <v>353</v>
+      </c>
+      <c r="C132" s="72"/>
+      <c r="D132" s="72"/>
+      <c r="E132" s="72"/>
+      <c r="F132" s="72"/>
+      <c r="G132" s="73"/>
       <c r="H132" s="5"/>
     </row>
     <row r="133" spans="1:8" ht="91.15" customHeight="1">
       <c r="A133" s="17"/>
-      <c r="B133" s="49"/>
-      <c r="C133" s="49" t="s">
-        <v>360</v>
+      <c r="B133" s="37"/>
+      <c r="C133" s="37" t="s">
+        <v>358</v>
       </c>
       <c r="D133" s="18"/>
       <c r="E133" s="5"/>
       <c r="F133" s="28"/>
-      <c r="G133" s="35"/>
+      <c r="G133" s="34"/>
       <c r="H133" s="5"/>
     </row>
-    <row r="134" spans="1:8" ht="97.15">
+    <row r="134" spans="1:8" ht="105">
       <c r="A134" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="E134" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="E134" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F134" s="29">
-        <v>43695</v>
-      </c>
-      <c r="G134" s="79" t="s">
+        <v>43688</v>
+      </c>
+      <c r="G134" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H134" s="2"/>
     </row>
     <row r="135" spans="1:8" ht="14.25" customHeight="1">
       <c r="A135" s="17"/>
-      <c r="B135" s="69" t="s">
-        <v>358</v>
-      </c>
-      <c r="C135" s="69"/>
-      <c r="D135" s="69"/>
-      <c r="E135" s="69"/>
-      <c r="F135" s="69"/>
-      <c r="G135" s="46"/>
+      <c r="B135" s="72" t="s">
+        <v>356</v>
+      </c>
+      <c r="C135" s="72"/>
+      <c r="D135" s="72"/>
+      <c r="E135" s="72"/>
+      <c r="F135" s="72"/>
+      <c r="G135" s="73"/>
       <c r="H135" s="5"/>
     </row>
     <row r="136" spans="1:8" ht="45" customHeight="1">
       <c r="A136" s="17"/>
-      <c r="B136" s="49"/>
-      <c r="C136" s="49" t="s">
-        <v>359</v>
+      <c r="B136" s="37"/>
+      <c r="C136" s="37" t="s">
+        <v>357</v>
       </c>
       <c r="D136" s="18"/>
       <c r="E136" s="5"/>
       <c r="F136" s="28"/>
-      <c r="G136" s="35"/>
+      <c r="G136" s="34"/>
       <c r="H136" s="5"/>
     </row>
-    <row r="137" spans="1:8" ht="97.15">
+    <row r="137" spans="1:8" ht="150">
       <c r="A137" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C137" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="B137" s="16" t="s">
+      <c r="D137" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="C137" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="D137" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="E137" s="51" t="s">
+      <c r="E137" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F137" s="29">
-        <v>43695</v>
-      </c>
-      <c r="G137" s="79" t="s">
+        <v>43688</v>
+      </c>
+      <c r="G137" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H137" s="2"/>
     </row>
     <row r="138" spans="1:8" ht="254.65" customHeight="1">
       <c r="A138" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="D138" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="B138" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="D138" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E138" s="51" t="s">
+      <c r="E138" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F138" s="29">
-        <v>43695</v>
-      </c>
-      <c r="G138" s="79" t="s">
+        <v>43688</v>
+      </c>
+      <c r="G138" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H138" s="2"/>
     </row>
     <row r="139" spans="1:8" ht="14.25" customHeight="1">
       <c r="A139" s="17"/>
-      <c r="B139" s="69" t="s">
-        <v>383</v>
-      </c>
-      <c r="C139" s="69"/>
-      <c r="D139" s="69"/>
-      <c r="E139" s="69"/>
-      <c r="F139" s="69"/>
-      <c r="G139" s="46"/>
+      <c r="B139" s="72" t="s">
+        <v>381</v>
+      </c>
+      <c r="C139" s="72"/>
+      <c r="D139" s="72"/>
+      <c r="E139" s="72"/>
+      <c r="F139" s="72"/>
+      <c r="G139" s="73"/>
       <c r="H139" s="5"/>
     </row>
     <row r="140" spans="1:8" ht="45" customHeight="1">
       <c r="A140" s="17"/>
-      <c r="B140" s="49"/>
-      <c r="C140" s="49" t="s">
-        <v>359</v>
+      <c r="B140" s="37"/>
+      <c r="C140" s="37" t="s">
+        <v>357</v>
       </c>
       <c r="D140" s="18"/>
       <c r="E140" s="5"/>
       <c r="F140" s="28"/>
-      <c r="G140" s="35"/>
+      <c r="G140" s="34"/>
       <c r="H140" s="5"/>
     </row>
     <row r="141" spans="1:8" ht="69.400000000000006" customHeight="1">
       <c r="A141" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B141" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="D141" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="C141" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="D141" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="E141" s="51" t="s">
+      <c r="E141" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F141" s="29">
-        <v>43695</v>
-      </c>
-      <c r="G141" s="79" t="s">
+        <v>43688</v>
+      </c>
+      <c r="G141" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H141" s="2"/>
     </row>
     <row r="142" spans="1:8" ht="14.25" customHeight="1">
       <c r="A142" s="17"/>
-      <c r="B142" s="69" t="s">
-        <v>421</v>
-      </c>
-      <c r="C142" s="69"/>
-      <c r="D142" s="69"/>
-      <c r="E142" s="69"/>
-      <c r="F142" s="69"/>
-      <c r="G142" s="46"/>
+      <c r="B142" s="72" t="s">
+        <v>419</v>
+      </c>
+      <c r="C142" s="72"/>
+      <c r="D142" s="72"/>
+      <c r="E142" s="72"/>
+      <c r="F142" s="72"/>
+      <c r="G142" s="73"/>
       <c r="H142" s="5"/>
     </row>
     <row r="143" spans="1:8" ht="64.5" customHeight="1">
       <c r="A143" s="17"/>
-      <c r="B143" s="49"/>
-      <c r="C143" s="49" t="s">
-        <v>423</v>
+      <c r="B143" s="37"/>
+      <c r="C143" s="37" t="s">
+        <v>421</v>
       </c>
       <c r="D143" s="18"/>
       <c r="E143" s="5"/>
       <c r="F143" s="28"/>
-      <c r="G143" s="35"/>
+      <c r="G143" s="34"/>
       <c r="H143" s="5"/>
     </row>
     <row r="144" spans="1:8" ht="69.400000000000006" customHeight="1">
       <c r="A144" s="16" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B144" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C144" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="C144" s="16" t="s">
-        <v>424</v>
-      </c>
       <c r="D144" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="E144" s="51" t="s">
+        <v>427</v>
+      </c>
+      <c r="E144" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F144" s="29">
-        <v>43695</v>
-      </c>
-      <c r="G144" s="79" t="s">
+        <v>43688</v>
+      </c>
+      <c r="G144" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H144" s="2"/>
     </row>
     <row r="145" spans="1:8" ht="69.400000000000006" customHeight="1">
       <c r="A145" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="B145" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="C145" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="B145" s="16" t="s">
+      <c r="D145" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="C145" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="D145" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="E145" s="51" t="s">
+      <c r="E145" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F145" s="29">
-        <v>43695</v>
-      </c>
-      <c r="G145" s="79" t="s">
+        <v>43688</v>
+      </c>
+      <c r="G145" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H145" s="2"/>
     </row>
     <row r="146" spans="1:8" ht="69.400000000000006" customHeight="1">
       <c r="A146" s="16" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="E146" s="51" t="s">
+        <v>428</v>
+      </c>
+      <c r="E146" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F146" s="29">
-        <v>43695</v>
-      </c>
-      <c r="G146" s="79" t="s">
+        <v>43688</v>
+      </c>
+      <c r="G146" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H146" s="2"/>
     </row>
     <row r="147" spans="1:8" ht="14.25" customHeight="1">
       <c r="A147" s="17"/>
-      <c r="B147" s="69" t="s">
-        <v>433</v>
-      </c>
-      <c r="C147" s="69"/>
-      <c r="D147" s="69"/>
-      <c r="E147" s="69"/>
-      <c r="F147" s="69"/>
-      <c r="G147" s="46"/>
+      <c r="B147" s="72" t="s">
+        <v>431</v>
+      </c>
+      <c r="C147" s="72"/>
+      <c r="D147" s="72"/>
+      <c r="E147" s="72"/>
+      <c r="F147" s="72"/>
+      <c r="G147" s="73"/>
       <c r="H147" s="5"/>
     </row>
     <row r="148" spans="1:8" ht="64.5" customHeight="1">
       <c r="A148" s="17"/>
-      <c r="B148" s="49"/>
-      <c r="C148" s="49" t="s">
-        <v>434</v>
+      <c r="B148" s="37"/>
+      <c r="C148" s="37" t="s">
+        <v>432</v>
       </c>
       <c r="D148" s="18"/>
       <c r="E148" s="5"/>
       <c r="F148" s="28"/>
-      <c r="G148" s="35"/>
+      <c r="G148" s="34"/>
       <c r="H148" s="5"/>
     </row>
-    <row r="149" spans="1:8" s="53" customFormat="1" ht="55.9" customHeight="1">
+    <row r="149" spans="1:8" s="41" customFormat="1" ht="55.9" customHeight="1">
       <c r="A149" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="B149" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C149" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="B149" s="16" t="s">
+      <c r="D149" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="C149" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="D149" s="16" t="s">
-        <v>438</v>
-      </c>
       <c r="E149" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F149" s="50">
-        <v>43695</v>
+      <c r="F149" s="38">
+        <v>43688</v>
       </c>
       <c r="G149" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H149" s="52"/>
+      <c r="H149" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B119:G119"/>
     <mergeCell ref="B139:G139"/>
     <mergeCell ref="B142:G142"/>
     <mergeCell ref="B147:G147"/>
@@ -6097,30 +6106,6 @@
     <mergeCell ref="B129:G129"/>
     <mergeCell ref="B132:G132"/>
     <mergeCell ref="B135:G135"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B106:G106"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B52:G52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6132,55 +6117,55 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="36" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="15.73046875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.59765625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1328125" style="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.9">
+    <row r="1" spans="1:8" ht="26.25">
       <c r="A1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-    </row>
-    <row r="2" spans="1:8" ht="38.65">
+      <c r="B1" s="68" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+    </row>
+    <row r="2" spans="1:8" ht="39">
       <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="B3" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="13" t="s">
@@ -6195,12 +6180,12 @@
       <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="44"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" thickBot="1">
+      <c r="F4" s="70"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="A5" s="10">
         <v>15</v>
       </c>
@@ -6213,10 +6198,10 @@
       <c r="D5" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="71">
         <v>15</v>
       </c>
-      <c r="F5" s="45"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
@@ -6246,17 +6231,17 @@
     </row>
     <row r="10" spans="1:8" ht="16.899999999999999" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41"/>
-    </row>
-    <row r="11" spans="1:8" ht="27.75">
+      <c r="B10" s="65" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+    </row>
+    <row r="11" spans="1:8" ht="30">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
@@ -6268,95 +6253,95 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" s="53" customFormat="1" ht="55.9" customHeight="1">
+    <row r="12" spans="1:8" s="41" customFormat="1" ht="55.9" customHeight="1">
       <c r="A12" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>280</v>
-      </c>
       <c r="D12" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="50">
-        <v>43695</v>
+      <c r="F12" s="38">
+        <v>43690</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="52"/>
-    </row>
-    <row r="13" spans="1:8" s="53" customFormat="1" ht="55.9" customHeight="1">
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" spans="1:8" s="41" customFormat="1" ht="55.9" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>281</v>
-      </c>
       <c r="E13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="50">
-        <v>43695</v>
+      <c r="F13" s="38">
+        <v>43690</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="52"/>
-    </row>
-    <row r="14" spans="1:8" s="53" customFormat="1" ht="55.9" customHeight="1">
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="1:8" s="41" customFormat="1" ht="55.9" customHeight="1">
       <c r="A14" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>284</v>
-      </c>
       <c r="D14" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="50">
-        <v>43695</v>
+      <c r="F14" s="38">
+        <v>43690</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="52"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="16.899999999999999" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41"/>
-    </row>
-    <row r="16" spans="1:8" ht="41.65">
+      <c r="B15" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
+    </row>
+    <row r="16" spans="1:8" ht="45">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -6364,421 +6349,416 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" s="53" customFormat="1" ht="55.9" customHeight="1">
+    <row r="17" spans="1:8" s="41" customFormat="1" ht="55.9" customHeight="1">
       <c r="A17" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>290</v>
-      </c>
       <c r="E17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="50">
-        <v>43695</v>
+      <c r="F17" s="38">
+        <v>43690</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="52"/>
+      <c r="H17" s="40"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1">
       <c r="A18" s="17"/>
-      <c r="B18" s="69" t="s">
-        <v>385</v>
-      </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="46"/>
+      <c r="B18" s="72" t="s">
+        <v>383</v>
+      </c>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="73"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="45" customHeight="1">
       <c r="A19" s="17"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49" t="s">
-        <v>386</v>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37" t="s">
+        <v>384</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="5"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="35"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" s="53" customFormat="1" ht="55.9" customHeight="1">
+    <row r="20" spans="1:8" s="41" customFormat="1" ht="55.9" customHeight="1">
       <c r="A20" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="50">
-        <v>43695</v>
+      <c r="F20" s="38">
+        <v>43690</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H20" s="52"/>
-    </row>
-    <row r="21" spans="1:8" s="53" customFormat="1" ht="55.9" customHeight="1">
+      <c r="H20" s="40"/>
+    </row>
+    <row r="21" spans="1:8" s="41" customFormat="1" ht="55.9" customHeight="1">
       <c r="A21" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="50">
-        <v>43695</v>
+      <c r="F21" s="38">
+        <v>43690</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="52"/>
-    </row>
-    <row r="22" spans="1:8" s="53" customFormat="1" ht="55.9" customHeight="1">
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22" spans="1:8" s="41" customFormat="1" ht="55.9" customHeight="1">
       <c r="A22" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="50">
-        <v>43695</v>
+      <c r="F22" s="38">
+        <v>43690</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="52"/>
-    </row>
-    <row r="23" spans="1:8" s="53" customFormat="1" ht="55.5" customHeight="1">
+      <c r="H22" s="40"/>
+    </row>
+    <row r="23" spans="1:8" s="41" customFormat="1" ht="55.5" customHeight="1">
       <c r="A23" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>394</v>
-      </c>
       <c r="E23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="50">
-        <v>43695</v>
+      <c r="F23" s="38">
+        <v>43690</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="52"/>
+      <c r="H23" s="40"/>
     </row>
     <row r="24" spans="1:8" ht="14.25" customHeight="1">
       <c r="A24" s="17"/>
-      <c r="B24" s="69" t="s">
-        <v>398</v>
-      </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="46"/>
+      <c r="B24" s="72" t="s">
+        <v>396</v>
+      </c>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="73"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="45" customHeight="1">
       <c r="A25" s="17"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49" t="s">
-        <v>386</v>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37" t="s">
+        <v>384</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="5"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="35"/>
+      <c r="G25" s="34"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" s="53" customFormat="1" ht="55.9" customHeight="1">
+    <row r="26" spans="1:8" s="41" customFormat="1" ht="55.9" customHeight="1">
       <c r="A26" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>401</v>
-      </c>
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="50">
-        <v>43695</v>
+      <c r="F26" s="38">
+        <v>43690</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="52"/>
-    </row>
-    <row r="27" spans="1:8" s="53" customFormat="1" ht="55.9" customHeight="1">
+      <c r="H26" s="40"/>
+    </row>
+    <row r="27" spans="1:8" s="41" customFormat="1" ht="55.9" customHeight="1">
       <c r="A27" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="50">
-        <v>43695</v>
+      <c r="F27" s="38">
+        <v>43690</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="52"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="1:8" ht="14.25" customHeight="1">
       <c r="A28" s="17"/>
-      <c r="B28" s="69" t="s">
-        <v>407</v>
-      </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="46"/>
+      <c r="B28" s="72" t="s">
+        <v>405</v>
+      </c>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="45" customHeight="1">
       <c r="A29" s="17"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49" t="s">
-        <v>386</v>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37" t="s">
+        <v>384</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="5"/>
       <c r="F29" s="28"/>
-      <c r="G29" s="35"/>
+      <c r="G29" s="34"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" s="53" customFormat="1" ht="55.9" customHeight="1">
+    <row r="30" spans="1:8" s="41" customFormat="1" ht="55.9" customHeight="1">
       <c r="A30" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>406</v>
-      </c>
       <c r="E30" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="50">
-        <v>43695</v>
+      <c r="F30" s="38">
+        <v>43690</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="52"/>
-    </row>
-    <row r="31" spans="1:8" s="53" customFormat="1" ht="55.9" customHeight="1">
+      <c r="H30" s="40"/>
+    </row>
+    <row r="31" spans="1:8" s="41" customFormat="1" ht="55.9" customHeight="1">
       <c r="A31" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B31" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>410</v>
-      </c>
       <c r="E31" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="50">
-        <v>43695</v>
+      <c r="F31" s="38">
+        <v>43690</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="52"/>
+      <c r="H31" s="40"/>
     </row>
     <row r="32" spans="1:8" ht="14.25" customHeight="1">
       <c r="A32" s="17"/>
-      <c r="B32" s="69" t="s">
-        <v>411</v>
-      </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="46"/>
+      <c r="B32" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="73"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" ht="45" customHeight="1">
       <c r="A33" s="17"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49" t="s">
-        <v>386</v>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37" t="s">
+        <v>384</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="5"/>
       <c r="F33" s="28"/>
-      <c r="G33" s="35"/>
+      <c r="G33" s="34"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" s="53" customFormat="1" ht="55.9" customHeight="1">
+    <row r="34" spans="1:8" s="41" customFormat="1" ht="55.9" customHeight="1">
       <c r="A34" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="50">
-        <v>43695</v>
+      <c r="F34" s="38">
+        <v>43690</v>
       </c>
       <c r="G34" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H34" s="52"/>
+      <c r="H34" s="40"/>
     </row>
     <row r="35" spans="1:8" ht="14.25" customHeight="1">
       <c r="A35" s="17"/>
-      <c r="B35" s="69" t="s">
-        <v>414</v>
-      </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="46"/>
+      <c r="B35" s="72" t="s">
+        <v>412</v>
+      </c>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="73"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" ht="45" customHeight="1">
       <c r="A36" s="17"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49" t="s">
-        <v>386</v>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37" t="s">
+        <v>384</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="5"/>
       <c r="F36" s="28"/>
-      <c r="G36" s="35"/>
+      <c r="G36" s="34"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" s="53" customFormat="1" ht="55.9" customHeight="1">
+    <row r="37" spans="1:8" s="41" customFormat="1" ht="55.9" customHeight="1">
       <c r="A37" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D37" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>418</v>
-      </c>
       <c r="E37" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="50">
-        <v>43695</v>
+      <c r="F37" s="38">
+        <v>43690</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H37" s="52"/>
-    </row>
-    <row r="38" spans="1:8" s="53" customFormat="1" ht="55.9" customHeight="1">
+      <c r="H37" s="40"/>
+    </row>
+    <row r="38" spans="1:8" s="41" customFormat="1" ht="55.9" customHeight="1">
       <c r="A38" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="50">
-        <v>43695</v>
+      <c r="F38" s="38">
+        <v>43690</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H38" s="52"/>
+      <c r="H38" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B32:G32"/>
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -6786,6 +6766,11 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6796,55 +6781,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="1"/>
-    <col min="2" max="2" width="26.3984375" customWidth="1"/>
-    <col min="3" max="3" width="26.1328125" customWidth="1"/>
-    <col min="4" max="4" width="28.86328125" customWidth="1"/>
-    <col min="5" max="5" width="21.86328125" customWidth="1"/>
-    <col min="6" max="6" width="15.73046875" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" customWidth="1"/>
-    <col min="8" max="8" width="19.3984375" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="B1" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+    </row>
+    <row r="2" spans="1:8" ht="26.25">
       <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="B3" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="13" t="s">
@@ -6859,12 +6844,12 @@
       <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="44"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.65" thickBot="1">
+      <c r="F4" s="70"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="A5" s="10">
         <v>6</v>
       </c>
@@ -6877,10 +6862,10 @@
       <c r="D5" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="71">
         <v>6</v>
       </c>
-      <c r="F5" s="45"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
@@ -6910,21 +6895,21 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5"/>
-      <c r="B10" s="39" t="s">
-        <v>441</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41"/>
-    </row>
-    <row r="11" spans="1:8" ht="69.400000000000006">
+      <c r="B10" s="65" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+    </row>
+    <row r="11" spans="1:8" ht="75">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -6932,144 +6917,144 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="124.9">
+    <row r="12" spans="1:8" ht="150">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="33">
-        <v>43696</v>
+      <c r="F12" s="32">
+        <v>43693</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="124.9">
+    <row r="13" spans="1:8" ht="150">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="33">
-        <v>43696</v>
+      <c r="F13" s="32">
+        <v>43693</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="97.15">
+    <row r="14" spans="1:8" ht="150">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="33">
-        <v>43696</v>
+      <c r="F14" s="32">
+        <v>43693</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="124.9">
+    <row r="15" spans="1:8" ht="150">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>455</v>
-      </c>
       <c r="E15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="33">
-        <v>43696</v>
+      <c r="F15" s="32">
+        <v>43693</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="124.9">
+    <row r="16" spans="1:8" ht="150">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>454</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="33">
-        <v>43696</v>
+      <c r="F16" s="32">
+        <v>43693</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="97.15">
+    <row r="17" spans="1:8" ht="150">
       <c r="A17" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="33">
-        <v>43696</v>
+      <c r="F17" s="32">
+        <v>43693</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>0</v>
@@ -7078,12 +7063,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B10:H10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
